--- a/test/Tests.xlsx
+++ b/test/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewBean Button" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="148">
   <si>
     <t>steps</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>new section should be added</t>
-  </si>
-  <si>
-    <t>expand InitClass and SectionClass fileds</t>
   </si>
   <si>
     <t>1. navigate http://localhost:8090/page4.htm
@@ -370,9 +367,6 @@
 2. Active element location on page
 3. select section elements
 4. click 's' button</t>
-  </si>
-  <si>
-    <t>verify bean populeted correctly</t>
   </si>
   <si>
     <t>5. Navigate to section Page
@@ -553,9 +547,6 @@
 4. add sectionName</t>
   </si>
   <si>
-    <t>Sectionname not populated</t>
-  </si>
-  <si>
     <t>missing Form 2</t>
   </si>
   <si>
@@ -564,13 +555,42 @@
   <si>
     <t>verify bean populeted correctly
 sectionName should not be populated</t>
+  </si>
+  <si>
+    <t>InitClass and SectionClass fileds should be expanded</t>
+  </si>
+  <si>
+    <t>missing tree on first tab</t>
+  </si>
+  <si>
+    <t>there is case, when tree-tab is missing after section page</t>
+  </si>
+  <si>
+    <t>esc. to Dima</t>
+  </si>
+  <si>
+    <t>1. dragg t1 to Form1-&gt;t1_form1
+2. dragg Form1 to Form2-&gt;t2_form
+3. Navigate to SectionPage</t>
+  </si>
+  <si>
+    <t>Verify section info displayed correctly</t>
+  </si>
+  <si>
+    <t>4. back to tab-page</t>
+  </si>
+  <si>
+    <t>Verify Form1 present under Form2</t>
+  </si>
+  <si>
+    <t>verify bean populeted correctly, section should  not be populated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +610,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -897,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -974,66 +1000,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1049,178 +1027,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1228,6 +1049,190 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,143 +1556,151 @@
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="123"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="123"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="122"/>
+        <v>139</v>
+      </c>
+      <c r="D4" s="53"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="63"/>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="121"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="63"/>
     </row>
     <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="89"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="59"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="112" t="s">
+      <c r="C11" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="60"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="113"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="112"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="113"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="6"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1726,49 +1739,49 @@
     </row>
     <row r="2" spans="1:4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="21"/>
     </row>
@@ -1791,22 +1804,23 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="44" style="43" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="57" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="20.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="44" style="36" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>45</v>
+      <c r="A1" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>3</v>
@@ -1823,402 +1837,426 @@
     </row>
     <row r="2" spans="1:5" s="32" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="56"/>
+        <v>45</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" s="32" customFormat="1" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="53"/>
+        <v>22</v>
+      </c>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:5" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+    </row>
+    <row r="7" spans="1:5" s="32" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:5" s="32" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="C7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="109"/>
+    </row>
+    <row r="8" spans="1:5" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="81"/>
+      <c r="C8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="109"/>
+    </row>
+    <row r="9" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="81"/>
+      <c r="C9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="109"/>
+    </row>
+    <row r="10" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+    </row>
+    <row r="11" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" spans="1:5" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="C11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="54"/>
-    </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="34" t="s">
+      <c r="D11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="E11" s="109"/>
+    </row>
+    <row r="12" spans="1:5" s="32" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="81"/>
+      <c r="C12" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="54"/>
-    </row>
-    <row r="12" spans="1:5" s="32" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="33" t="s">
+      <c r="D12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="109"/>
+    </row>
+    <row r="13" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="81"/>
+      <c r="C13" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="109"/>
+    </row>
+    <row r="14" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+    </row>
+    <row r="15" spans="1:5" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="54"/>
-    </row>
-    <row r="13" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="81"/>
+      <c r="C16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="85"/>
-    </row>
-    <row r="16" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="34" t="s">
+      <c r="D16" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="111"/>
+    </row>
+    <row r="17" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+    </row>
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="86"/>
-    </row>
-    <row r="17" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="E18" s="112"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="81"/>
+      <c r="C19" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="34" t="s">
+      <c r="E19" s="112"/>
+    </row>
+    <row r="20" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+    </row>
+    <row r="21" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="85"/>
+    </row>
+    <row r="22" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="80"/>
+      <c r="C22" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="86"/>
+    </row>
+    <row r="23" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="58"/>
+      <c r="C23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="D23" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="87"/>
+    </row>
+    <row r="24" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+    </row>
+    <row r="25" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="74"/>
-    </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="75"/>
-    </row>
-    <row r="23" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
-      <c r="C23" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="52" t="s">
+      <c r="E25" s="113"/>
+    </row>
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="80"/>
+      <c r="C26" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="76"/>
-    </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-    </row>
-    <row r="25" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="109"/>
-    </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="36" t="s">
+      <c r="D26" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="114"/>
     </row>
     <row r="27" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="111"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
     </row>
     <row r="29" spans="1:6" s="32" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="114"/>
+        <v>46</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="116"/>
     </row>
     <row r="30" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="99" t="s">
-        <v>139</v>
+        <v>52</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
     </row>
     <row r="32" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+    </row>
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D34" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="99" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-    </row>
-    <row r="34" spans="1:5" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="33" t="s">
+      <c r="E34" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
+    </row>
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="73" t="s">
+      <c r="D36" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="73"/>
+    </row>
+    <row r="38" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
-    </row>
-    <row r="36" spans="1:5" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="56"/>
-    </row>
-    <row r="37" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="50"/>
-    </row>
-    <row r="38" spans="1:5" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="34" t="s">
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+    </row>
+    <row r="40" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="56"/>
-    </row>
-    <row r="39" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="50"/>
-    </row>
-    <row r="40" spans="1:5" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E40" s="56"/>
-    </row>
-    <row r="41" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="1:6" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="73"/>
-    </row>
-    <row r="42" spans="1:5" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
+      <c r="E42" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E25:E27"/>
@@ -2235,21 +2273,6 @@
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2258,29 +2281,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="37" customWidth="1"/>
     <col min="2" max="2" width="32.42578125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="33"/>
+    <col min="3" max="3" width="30.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="37"/>
     <col min="5" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
@@ -2288,253 +2311,294 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="88"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="81"/>
+      <c r="B3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="90"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
+    </row>
+    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="88"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="90"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+    </row>
+    <row r="8" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="88"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="90"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="88"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="89"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="90"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+    </row>
+    <row r="15" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="88"/>
+    </row>
+    <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="90"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="88"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
+      <c r="B19" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="89"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="89"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="90"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="88"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="115"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="116"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
-    </row>
-    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="115"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="116"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-    </row>
-    <row r="8" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="104"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="105"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="68"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="107"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="69"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-    </row>
-    <row r="15" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="100"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="101"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="62"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="33" t="s">
+      <c r="C24" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="106"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="106"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="63"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="62"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="33" t="s">
+      <c r="D24" s="89"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="92"/>
+      <c r="B25" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="106"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="106"/>
+      <c r="D25" s="89"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D26" s="63"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="90"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="109"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="B29" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="109"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="D23:D26"/>
@@ -2545,17 +2609,6 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2565,27 +2618,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="60" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="33.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="44" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
@@ -2593,138 +2646,138 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="98"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="97"/>
+      <c r="B3" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="C3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="98"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="97"/>
+      <c r="B4" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="98"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="98"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="97"/>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="D7" s="98"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="98"/>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="97"/>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="C9" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="98"/>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="98"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="98"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="97"/>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="97"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="97"/>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="97"/>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
-      <c r="B9" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="97"/>
-    </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
-      <c r="B10" s="59" t="s">
+      <c r="D13" s="98"/>
+    </row>
+    <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C14" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="97"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="97"/>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
-      <c r="B13" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="97"/>
-    </row>
-    <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="97"/>
+      <c r="D14" s="98"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2746,7 +2799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2759,108 +2812,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="118"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="98"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-    </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="118"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="98"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="118"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="98"/>
+        <v>116</v>
+      </c>
+      <c r="D8" s="118"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="98"/>
+        <v>118</v>
+      </c>
+      <c r="D10" s="118"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2871,5 +2924,6 @@
     <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/Tests.xlsx
+++ b/test/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="NewBean Button" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DropDown" sheetId="4" r:id="rId4"/>
     <sheet name="El.location" sheetId="5" r:id="rId5"/>
     <sheet name="ShowAll" sheetId="6" r:id="rId6"/>
+    <sheet name="Page text-field" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
   <si>
     <t>steps</t>
   </si>
@@ -279,10 +280,6 @@
   </si>
   <si>
     <t>Verify that Element name shown corrctly in file</t>
-  </si>
-  <si>
-    <t>1. dragg f1
-2. dropp it somewhere - not to any element</t>
   </si>
   <si>
     <t>1.Nothing should happened with tree
@@ -584,6 +581,61 @@
   </si>
   <si>
     <t>verify bean populeted correctly, section should  not be populated</t>
+  </si>
+  <si>
+    <t>1. add new bean button
+2. delete bean
+3. add new bean button
+4. change bean type to sectionType
+5. add children
+6. add sectionName</t>
+  </si>
+  <si>
+    <t>verify PO-pre displayd correctly</t>
+  </si>
+  <si>
+    <t>7. Navigate to Section page</t>
+  </si>
+  <si>
+    <t>verify section dispayed correctly</t>
+  </si>
+  <si>
+    <t>8. Back to tree</t>
+  </si>
+  <si>
+    <t>1. dragg t1
+2. dropp it somewhere - not to any element</t>
+  </si>
+  <si>
+    <t>1. open new page file:///D:/vol2/page/generator.html
+2. click showAll</t>
+  </si>
+  <si>
+    <t>3. enter letters</t>
+  </si>
+  <si>
+    <t>1. set cursot at the middle on 'Package name' text
+2. enter number and sumbols</t>
+  </si>
+  <si>
+    <t>1. set cursot at the middle on 'Class name' text
+2. enter  sumbols</t>
+  </si>
+  <si>
+    <t>3. enter letters+numbers</t>
+  </si>
+  <si>
+    <t>nothing should happends, cursor chould not moving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify 
+1. class name changing in PO-pre
+2. cursor not moving to the end </t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify 
+1. package  name changing in PO-pre
+2. cursor not moving to the end </t>
   </si>
 </sst>
 </file>
@@ -619,7 +671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,12 +710,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -693,7 +739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -919,58 +965,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1030,149 +1058,263 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1181,13 +1323,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,40 +1341,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,189 +1656,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="1" max="1" width="40.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="60"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="46" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="77"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="77"/>
+    </row>
+    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="69"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="70"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="63"/>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="52"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="63"/>
-    </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="79"/>
+      <c r="B14" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="70"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="48"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="51" t="s">
+      <c r="B16" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="59"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="60"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="59" t="s">
+      <c r="C16" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="73"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="75"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="54"/>
+    </row>
+    <row r="20" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="60"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1716,11 +1896,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="29"/>
-    <col min="5" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="40.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="16"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1730,66 +1910,66 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="1:4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="65"/>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1804,441 +1984,441 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="44" style="36" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="20.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44" style="23" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="32" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:5" s="19" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5" s="32" customFormat="1" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" s="19" customFormat="1" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+    </row>
+    <row r="5" spans="1:5" s="19" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="99"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+    </row>
+    <row r="7" spans="1:5" s="19" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="105" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="107"/>
+    </row>
+    <row r="8" spans="1:5" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="105"/>
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="107"/>
+    </row>
+    <row r="9" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="105"/>
+      <c r="C9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="107"/>
+    </row>
+    <row r="10" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
+    </row>
+    <row r="11" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="107"/>
+    </row>
+    <row r="12" spans="1:5" s="19" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="105"/>
+      <c r="C12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="107"/>
+    </row>
+    <row r="13" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="105"/>
+      <c r="C13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="107"/>
+    </row>
+    <row r="14" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+    </row>
+    <row r="15" spans="1:5" s="19" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="108"/>
+    </row>
+    <row r="16" spans="1:5" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="105"/>
+      <c r="C16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="77"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="79"/>
-    </row>
-    <row r="5" spans="1:5" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-    </row>
-    <row r="7" spans="1:5" s="32" customFormat="1" ht="45" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="81" t="s">
+      <c r="E16" s="109"/>
+    </row>
+    <row r="17" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+    </row>
+    <row r="18" spans="1:6" s="19" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="109"/>
-    </row>
-    <row r="8" spans="1:5" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="81"/>
-      <c r="C8" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="109"/>
-    </row>
-    <row r="9" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="81"/>
-      <c r="C9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="109"/>
-    </row>
-    <row r="10" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-    </row>
-    <row r="11" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="109"/>
-    </row>
-    <row r="12" spans="1:5" s="32" customFormat="1" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="109"/>
-    </row>
-    <row r="13" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="81"/>
-      <c r="C13" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="109"/>
-    </row>
-    <row r="14" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-    </row>
-    <row r="15" spans="1:5" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="110"/>
-    </row>
-    <row r="16" spans="1:5" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="81"/>
-      <c r="C16" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="111"/>
-    </row>
-    <row r="17" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-    </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="60" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="81"/>
-      <c r="C19" s="34" t="s">
+      <c r="E18" s="106"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="105"/>
+      <c r="C19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="106"/>
+    </row>
+    <row r="20" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+    </row>
+    <row r="21" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="96"/>
+    </row>
+    <row r="22" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="103"/>
+      <c r="C22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="97"/>
+    </row>
+    <row r="23" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="104"/>
+      <c r="C23" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="112"/>
-    </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-    </row>
-    <row r="21" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="33" t="s">
+      <c r="D23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="98"/>
+    </row>
+    <row r="24" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+    </row>
+    <row r="25" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="85"/>
-    </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
-      <c r="C22" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="86"/>
-    </row>
-    <row r="23" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="58"/>
-      <c r="C23" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="39" t="s">
+      <c r="E25" s="83"/>
+    </row>
+    <row r="26" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="103"/>
+      <c r="C26" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="87"/>
-    </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-    </row>
-    <row r="25" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="113"/>
-    </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="80"/>
-      <c r="C26" s="57" t="s">
+      <c r="D26" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="114"/>
-    </row>
-    <row r="27" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="115"/>
-    </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-    </row>
-    <row r="29" spans="1:6" s="32" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="E26" s="84"/>
+    </row>
+    <row r="27" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="85"/>
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="95"/>
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="116"/>
-    </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="B29" s="90"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="92"/>
+    </row>
+    <row r="32" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="71"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-    </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="F32" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="95"/>
+    </row>
+    <row r="34" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
-    </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="C34" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="92"/>
+    </row>
+    <row r="36" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-    </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="40"/>
-    </row>
-    <row r="37" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-    </row>
-    <row r="38" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="92"/>
+    </row>
+    <row r="38" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="40"/>
-    </row>
-    <row r="39" spans="1:6" s="32" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-    </row>
-    <row r="40" spans="1:6" s="32" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" spans="1:6" s="19" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="92"/>
+    </row>
+    <row r="40" spans="1:6" s="19" customFormat="1" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="33"/>
+    </row>
+    <row r="42" spans="1:6" ht="75" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="46"/>
-    </row>
-    <row r="42" spans="1:6" ht="75" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="49"/>
+      <c r="E42" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -2284,305 +2464,305 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="37" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="37"/>
-    <col min="5" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="35.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="114"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="105"/>
+      <c r="B3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="115"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119"/>
+    </row>
+    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="114"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="105"/>
+      <c r="B6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="115"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+    </row>
+    <row r="8" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="114"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="105"/>
+      <c r="B9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="115"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="114"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="113"/>
+      <c r="B12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="116"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="115"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="112"/>
+    </row>
+    <row r="15" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="114"/>
+    </row>
+    <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="113"/>
+      <c r="B16" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="115"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="110"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="114"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="113"/>
+      <c r="B19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="116"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="113"/>
+      <c r="B20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="116"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="115"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="114"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="113"/>
+      <c r="B24" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="116"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="113"/>
+      <c r="B25" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="116"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+      <c r="B26" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="88"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="90"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-    </row>
-    <row r="5" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="88"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="90"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-    </row>
-    <row r="8" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="88"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
-      <c r="B9" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="90"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="88"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
-      <c r="B12" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="89"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
-      <c r="B13" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="90"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-    </row>
-    <row r="15" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="88"/>
-    </row>
-    <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="90"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="88"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
-      <c r="B19" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="89"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
-      <c r="B20" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="89"/>
-    </row>
-    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="90"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="88"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="89"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="34" t="s">
+      <c r="C26" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="89"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="90"/>
+      <c r="D26" s="115"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
     </row>
     <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="D28" s="107"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="105"/>
+      <c r="B29" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="109"/>
-    </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="34" t="s">
+      <c r="C29" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="109"/>
+      <c r="D29" s="107"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2619,165 +2799,165 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="43" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="44" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="33.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="121"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
+      <c r="B3" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C3" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="121"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="120"/>
+      <c r="B4" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="98"/>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
-      <c r="B3" s="44" t="s">
+      <c r="C4" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="121"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="120"/>
+      <c r="B5" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="121"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="125"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="98"/>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
-      <c r="B4" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="98"/>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
-      <c r="B5" s="44" t="s">
+      <c r="D7" s="121"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="120"/>
+      <c r="B8" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="D8" s="121"/>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
+      <c r="B9" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="98"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="C9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="121"/>
+    </row>
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="120"/>
+      <c r="B10" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="121"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="C12" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="121"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="120"/>
+      <c r="B13" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="98"/>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="98"/>
-    </row>
-    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="98"/>
-    </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="43" t="s">
+      <c r="C13" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="121"/>
+    </row>
+    <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="120"/>
+      <c r="B14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="98"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="98"/>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
-      <c r="B13" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="98"/>
-    </row>
-    <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
-      <c r="B14" s="43" t="s">
+      <c r="C14" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="98"/>
+      <c r="D14" s="121"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2799,121 +2979,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="66"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
+    </row>
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="118"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-    </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="118"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101"/>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="66"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="124"/>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="118"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="66"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="122"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="124"/>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="118"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-    </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="118"/>
+      <c r="D10" s="66"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2926,4 +3106,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="44" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="128"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="131" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="132"/>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="120"/>
+      <c r="B3" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="132"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+    </row>
+    <row r="5" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="136"/>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="120"/>
+      <c r="B6" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="137"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>